--- a/cognitive_test_results.xlsx
+++ b/cognitive_test_results.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madma\Documents\zDrugMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{693093E8-9E74-429D-84A9-E7E38765DEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3856623E-4231-4088-A78C-018BE4A3CDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{0EBB6897-470D-46A5-95F9-4F5FAD9B2DC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EBB6897-470D-46A5-95F9-4F5FAD9B2DC1}"/>
   </bookViews>
   <sheets>
     <sheet name="cognitive_test_results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Date and Time</t>
   </si>
@@ -41,6 +54,12 @@
   </si>
   <si>
     <t>Total Subtraction Time (s)</t>
+  </si>
+  <si>
+    <t>sober</t>
+  </si>
+  <si>
+    <t>THC</t>
   </si>
 </sst>
 </file>
@@ -906,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F461D8B-DBFF-4F94-A845-BF692CC26C79}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A3" sqref="A3:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,59 +942,59 @@
     <col min="7" max="7" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <f>AVERAGE(B4:B8)</f>
-        <v>12.806666666666667</v>
+        <v>10.712</v>
       </c>
       <c r="C1" s="2">
         <f t="shared" ref="C1:G1" si="0">AVERAGE(C4:C8)</f>
-        <v>47.743333333333332</v>
+        <v>43.786000000000001</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" si="0"/>
-        <v>12.143333333333333</v>
+        <v>9.548</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" si="0"/>
-        <v>23.256666666666664</v>
+        <v>25.265999999999998</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>8.3566666666666674</v>
+        <v>8.0139999999999993</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
-        <v>41.793333333333329</v>
+        <v>40.077999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <f>STDEV(B4:B8)/SQRT(COUNT(B4:B8))</f>
-        <v>4.12902059950191</v>
+        <v>2.6015080242044224</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:G2" si="1">STDEV(C4:C8)/SQRT(COUNT(C4:C8))</f>
-        <v>4.6764742179457466</v>
+        <v>3.5538016264276817</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
-        <v>7.2504720152859328</v>
+        <v>4.2832714133008203</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="1"/>
-        <v>1.500825698666497</v>
+        <v>1.8498070169614984</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="1"/>
-        <v>1.0780280350920615</v>
+        <v>0.7309486986102377</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="1"/>
-        <v>5.3807568653902687</v>
+        <v>3.6485029806757883</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -998,83 +1017,255 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45464.98159722222</v>
+        <v>45464.983761574076</v>
+      </c>
+      <c r="B4">
+        <v>21.03</v>
+      </c>
+      <c r="C4">
+        <v>56.29</v>
+      </c>
+      <c r="D4">
+        <v>5.2</v>
+      </c>
+      <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>10.38</v>
+      </c>
+      <c r="G4">
+        <v>51.89</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45464.983761574076</v>
+        <v>45465.918240740742</v>
       </c>
       <c r="B5">
-        <v>21.03</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="C5">
-        <v>56.29</v>
+        <v>40.18</v>
       </c>
       <c r="D5">
-        <v>5.2</v>
+        <v>4.59</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>22.94</v>
       </c>
       <c r="F5">
-        <v>10.38</v>
+        <v>7.99</v>
       </c>
       <c r="G5">
-        <v>51.89</v>
+        <v>39.97</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45464.985474537039</v>
+        <v>45472.964467592596</v>
+      </c>
+      <c r="B6">
+        <v>9.35</v>
+      </c>
+      <c r="C6">
+        <v>46.76</v>
+      </c>
+      <c r="D6">
+        <v>26.64</v>
+      </c>
+      <c r="E6">
+        <v>20.83</v>
+      </c>
+      <c r="F6">
+        <v>6.7</v>
+      </c>
+      <c r="G6">
+        <v>33.520000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45465.918240740742</v>
+        <v>45475.812881944446</v>
       </c>
       <c r="B7">
-        <v>8.0399999999999991</v>
+        <v>7.29</v>
       </c>
       <c r="C7">
-        <v>40.18</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="D7">
-        <v>4.59</v>
+        <v>6.36</v>
       </c>
       <c r="E7">
-        <v>22.94</v>
+        <v>31.79</v>
       </c>
       <c r="F7">
-        <v>7.99</v>
+        <v>8.69</v>
       </c>
       <c r="G7">
-        <v>39.97</v>
+        <v>43.44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45472.964467592596</v>
+        <v>45475.978101851855</v>
       </c>
       <c r="B8">
-        <v>9.35</v>
+        <v>7.85</v>
       </c>
       <c r="C8">
-        <v>46.76</v>
+        <v>39.25</v>
       </c>
       <c r="D8">
-        <v>26.64</v>
+        <v>4.95</v>
       </c>
       <c r="E8">
-        <v>20.83</v>
+        <v>24.77</v>
       </c>
       <c r="F8">
-        <v>6.7</v>
+        <v>6.31</v>
       </c>
       <c r="G8">
-        <v>33.520000000000003</v>
+        <v>31.57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45475.984467592592</v>
+      </c>
+      <c r="B9">
+        <v>8.57</v>
+      </c>
+      <c r="C9">
+        <v>42.83</v>
+      </c>
+      <c r="D9">
+        <v>5.32</v>
+      </c>
+      <c r="E9">
+        <v>26.61</v>
+      </c>
+      <c r="F9">
+        <v>7.76</v>
+      </c>
+      <c r="G9">
+        <v>38.82</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45475.989675925928</v>
+      </c>
+      <c r="B10">
+        <v>10.54</v>
+      </c>
+      <c r="C10">
+        <v>52.71</v>
+      </c>
+      <c r="D10">
+        <v>6.81</v>
+      </c>
+      <c r="E10">
+        <v>34.03</v>
+      </c>
+      <c r="F10">
+        <v>6.94</v>
+      </c>
+      <c r="G10">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45476.879537037035</v>
+      </c>
+      <c r="B11">
+        <v>7.37</v>
+      </c>
+      <c r="C11">
+        <v>36.86</v>
+      </c>
+      <c r="D11">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E11">
+        <v>20.3</v>
+      </c>
+      <c r="F11">
+        <v>5.48</v>
+      </c>
+      <c r="G11">
+        <v>27.39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45477.449652777781</v>
+      </c>
+      <c r="B12">
+        <v>5.27</v>
+      </c>
+      <c r="C12">
+        <v>26.35</v>
+      </c>
+      <c r="D12">
+        <v>4.84</v>
+      </c>
+      <c r="E12">
+        <v>24.19</v>
+      </c>
+      <c r="F12">
+        <v>5.17</v>
+      </c>
+      <c r="G12">
+        <v>25.84</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45477.525057870371</v>
+      </c>
+      <c r="B13">
+        <v>6.18</v>
+      </c>
+      <c r="C13">
+        <v>30.88</v>
+      </c>
+      <c r="D13">
+        <v>15.57</v>
+      </c>
+      <c r="E13">
+        <v>20.56</v>
+      </c>
+      <c r="F13">
+        <v>5.13</v>
+      </c>
+      <c r="G13">
+        <v>25.63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/cognitive_test_results.xlsx
+++ b/cognitive_test_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madma\Documents\zDrugMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3856623E-4231-4088-A78C-018BE4A3CDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A057291-06E5-4472-890F-451889430FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EBB6897-470D-46A5-95F9-4F5FAD9B2DC1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Date and Time</t>
   </si>
@@ -56,10 +56,25 @@
     <t>Total Subtraction Time (s)</t>
   </si>
   <si>
-    <t>sober</t>
+    <t>THC</t>
   </si>
   <si>
-    <t>THC</t>
+    <t>Sober</t>
+  </si>
+  <si>
+    <t>Tired</t>
+  </si>
+  <si>
+    <t>THC+tired</t>
+  </si>
+  <si>
+    <t>Edible</t>
+  </si>
+  <si>
+    <t>thc</t>
+  </si>
+  <si>
+    <t>tired</t>
   </si>
 </sst>
 </file>
@@ -925,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F461D8B-DBFF-4F94-A845-BF692CC26C79}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H13"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,54 +959,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
-        <f>AVERAGE(B4:B8)</f>
-        <v>10.712</v>
+        <f>AVERAGE(B4:B52)</f>
+        <v>8.963124999999998</v>
       </c>
       <c r="C1" s="2">
-        <f t="shared" ref="C1:G1" si="0">AVERAGE(C4:C8)</f>
-        <v>43.786000000000001</v>
+        <f t="shared" ref="C1:G1" si="0">AVERAGE(C4:C52)</f>
+        <v>39.870937500000004</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" si="0"/>
-        <v>9.548</v>
+        <v>7.8618749999999986</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" si="0"/>
-        <v>25.265999999999998</v>
+        <v>24.212500000000002</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>8.0139999999999993</v>
+        <v>7.8793750000000005</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
-        <v>40.077999999999996</v>
+        <v>31.347499999999997</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
-        <f>STDEV(B4:B8)/SQRT(COUNT(B4:B8))</f>
-        <v>2.6015080242044224</v>
+        <f>STDEV(B4:B52)/SQRT(COUNT(B4:B52))</f>
+        <v>0.61326325674755233</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:G2" si="1">STDEV(C4:C8)/SQRT(COUNT(C4:C8))</f>
-        <v>3.5538016264276817</v>
+        <f t="shared" ref="C2:G2" si="1">STDEV(C4:C52)/SQRT(COUNT(C4:C52))</f>
+        <v>1.3289818713549471</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
-        <v>4.2832714133008203</v>
+        <v>1.0995045106095782</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="1"/>
-        <v>1.8498070169614984</v>
+        <v>0.96086518053329839</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="1"/>
-        <v>0.7309486986102377</v>
+        <v>0.72073802026173595</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="1"/>
-        <v>3.6485029806757883</v>
+        <v>1.1645899527578472</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1021,22 +1036,22 @@
       <c r="A4" s="1">
         <v>45464.983761574076</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>21.03</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>56.29</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>5.2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>26</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>10.38</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>51.89</v>
       </c>
     </row>
@@ -1044,22 +1059,22 @@
       <c r="A5" s="1">
         <v>45465.918240740742</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>8.0399999999999991</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>40.18</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>4.59</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>22.94</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>7.99</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>39.97</v>
       </c>
     </row>
@@ -1067,22 +1082,22 @@
       <c r="A6" s="1">
         <v>45472.964467592596</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>9.35</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>46.76</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>26.64</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>20.83</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>6.7</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>33.520000000000003</v>
       </c>
     </row>
@@ -1090,182 +1105,754 @@
       <c r="A7" s="1">
         <v>45475.812881944446</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>7.29</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>36.450000000000003</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>6.36</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>31.79</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>8.69</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>43.44</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45475.978101851855</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>7.85</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>39.25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>4.95</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>24.77</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>6.31</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>31.57</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45475.984467592592</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>8.57</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>42.83</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>5.32</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>26.61</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>7.76</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>38.82</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45475.989675925928</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>10.54</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>52.71</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>6.81</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>34.03</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>6.94</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>34.700000000000003</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45476.879537037035</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>7.37</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>36.86</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>20.3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>5.48</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>27.39</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45477.449652777781</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>5.27</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>26.35</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>4.84</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>24.19</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>5.17</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>25.84</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45477.525057870371</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>6.18</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>30.88</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>15.57</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>20.56</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>5.13</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>25.63</v>
       </c>
       <c r="H13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45477.970370370371</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7.72</v>
+      </c>
+      <c r="C14" s="2">
+        <v>38.619999999999997</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4.84</v>
+      </c>
+      <c r="G14" s="2">
+        <v>24.19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45483.906284722223</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44.38</v>
+      </c>
+      <c r="D15" s="2">
+        <v>15.81</v>
+      </c>
+      <c r="E15" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>15.48</v>
+      </c>
+      <c r="G15" s="2">
+        <v>25.23</v>
+      </c>
+      <c r="H15" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45484.040486111109</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8.27</v>
+      </c>
+      <c r="C16" s="2">
+        <v>41.36</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.55</v>
+      </c>
+      <c r="E16" s="2">
+        <v>22.75</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="G16" s="2">
+        <v>28.99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45484.924224537041</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6.61</v>
+      </c>
+      <c r="C17" s="2">
+        <v>33.04</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="E17" s="2">
+        <v>16.88</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5.63</v>
+      </c>
+      <c r="G17" s="2">
+        <v>28.16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45485.86614583333</v>
+      </c>
+      <c r="B18" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="C18" s="2">
+        <v>59.76</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E18" s="2">
+        <v>24.69</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5.65</v>
+      </c>
+      <c r="G18" s="2">
+        <v>28.27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45487.540370370371</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6.47</v>
+      </c>
+      <c r="C19" s="2">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="D19" s="2">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2">
+        <v>18.54</v>
+      </c>
+      <c r="F19" s="2">
+        <v>17.88</v>
+      </c>
+      <c r="G19" s="2">
+        <v>35.46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45487.542025462964</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7.07</v>
+      </c>
+      <c r="C20" s="2">
+        <v>35.36</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4.59</v>
+      </c>
+      <c r="E20" s="2">
+        <v>22.97</v>
+      </c>
+      <c r="F20" s="2">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45489.711076388892</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>35.520000000000003</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5.21</v>
+      </c>
+      <c r="E21" s="2">
+        <v>26.07</v>
+      </c>
+      <c r="F21" s="2">
+        <v>7.66</v>
+      </c>
+      <c r="G21" s="2">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45492.715150462966</v>
+      </c>
+      <c r="B22" s="2">
+        <v>8.75</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43.73</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E22" s="2">
+        <v>22.41</v>
+      </c>
+      <c r="F22" s="2">
+        <v>7.31</v>
+      </c>
+      <c r="G22" s="2">
+        <v>36.56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45494.030219907407</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>42.01</v>
+      </c>
+      <c r="D23" s="2">
+        <v>15.62</v>
+      </c>
+      <c r="E23" s="2">
+        <v>28.82</v>
+      </c>
+      <c r="F23" s="2">
+        <v>17.48</v>
+      </c>
+      <c r="G23" s="2">
+        <v>38.85</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45495.055277777778</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8.76</v>
+      </c>
+      <c r="C24" s="2">
+        <v>43.82</v>
+      </c>
+      <c r="D24" s="2">
+        <v>25.66</v>
+      </c>
+      <c r="E24" s="2">
+        <v>28.67</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5.12</v>
+      </c>
+      <c r="G24" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45498.500775462962</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7.79</v>
+      </c>
+      <c r="C25" s="2">
+        <v>38.97</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5.04</v>
+      </c>
+      <c r="E25" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5.58</v>
+      </c>
+      <c r="G25" s="2">
+        <v>27.92</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45500.936793981484</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7.56</v>
+      </c>
+      <c r="C26" s="2">
+        <v>37.81</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6.93</v>
+      </c>
+      <c r="E26" s="2">
+        <v>34.64</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4.91</v>
+      </c>
+      <c r="G26" s="2">
+        <v>24.54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45504.929351851853</v>
+      </c>
+      <c r="B27" s="2">
+        <v>8.59</v>
+      </c>
+      <c r="C27" s="2">
+        <v>42.94</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="E27" s="2">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5.09</v>
+      </c>
+      <c r="G27" s="2">
+        <v>25.47</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45506.577557870369</v>
+      </c>
+      <c r="B28" s="2">
+        <v>8.31</v>
+      </c>
+      <c r="C28" s="2">
+        <v>41.57</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4.87</v>
+      </c>
+      <c r="E28" s="2">
+        <v>24.34</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4.67</v>
+      </c>
+      <c r="G28" s="2">
+        <v>23.34</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45508.877291666664</v>
+      </c>
+      <c r="B29" s="2">
+        <v>16.78</v>
+      </c>
+      <c r="C29" s="2">
+        <v>28.53</v>
+      </c>
+      <c r="D29" s="2">
+        <v>14.61</v>
+      </c>
+      <c r="E29" s="2">
+        <v>21.65</v>
+      </c>
+      <c r="F29" s="2">
+        <v>7.06</v>
+      </c>
+      <c r="G29" s="2">
+        <v>35.28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45508.878634259258</v>
+      </c>
+      <c r="B30" s="2">
+        <v>9.58</v>
+      </c>
+      <c r="C30" s="2">
+        <v>47.92</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5.48</v>
+      </c>
+      <c r="E30" s="2">
+        <v>27.38</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4.97</v>
+      </c>
+      <c r="G30" s="2">
+        <v>24.83</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45508.907187500001</v>
+      </c>
+      <c r="B31" s="2">
+        <v>18.11</v>
+      </c>
+      <c r="C31" s="2">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4.54</v>
+      </c>
+      <c r="E31" s="2">
+        <v>22.72</v>
+      </c>
+      <c r="F31" s="2">
+        <v>15.93</v>
+      </c>
+      <c r="G31" s="2">
+        <v>27.25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45508.908483796295</v>
+      </c>
+      <c r="B32" s="2">
+        <v>8.52</v>
+      </c>
+      <c r="C32" s="2">
+        <v>42.61</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4.67</v>
+      </c>
+      <c r="E32" s="2">
+        <v>23.36</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5.77</v>
+      </c>
+      <c r="G32" s="2">
+        <v>28.83</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45511.475937499999</v>
+      </c>
+      <c r="B33" s="2">
+        <v>7.57</v>
+      </c>
+      <c r="C33" s="2">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="F33" s="2">
+        <v>6.22</v>
+      </c>
+      <c r="G33" s="2">
+        <v>31.12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45528.36146990741</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6.26</v>
+      </c>
+      <c r="C34" s="2">
+        <v>31.31</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4.22</v>
+      </c>
+      <c r="E34" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>6.21</v>
+      </c>
+      <c r="G34" s="2">
+        <v>31.04</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45530.942442129628</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6.28</v>
+      </c>
+      <c r="C35" s="2">
+        <v>31.39</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="E35" s="2">
+        <v>15.79</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5.52</v>
+      </c>
+      <c r="G35" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/cognitive_test_results.xlsx
+++ b/cognitive_test_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madma\Documents\zDrugMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A057291-06E5-4472-890F-451889430FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE2E3BB-03AA-42DC-BC32-6B377D253B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EBB6897-470D-46A5-95F9-4F5FAD9B2DC1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
   <si>
     <t>Date and Time</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>tired</t>
+  </si>
+  <si>
+    <t>sober</t>
   </si>
 </sst>
 </file>
@@ -940,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F461D8B-DBFF-4F94-A845-BF692CC26C79}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,53 +963,53 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <f>AVERAGE(B4:B52)</f>
-        <v>8.963124999999998</v>
+        <v>8.717567567567567</v>
       </c>
       <c r="C1" s="2">
         <f t="shared" ref="C1:G1" si="0">AVERAGE(C4:C52)</f>
-        <v>39.870937500000004</v>
+        <v>39.31</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" si="0"/>
-        <v>7.8618749999999986</v>
+        <v>7.39135135135135</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" si="0"/>
-        <v>24.212500000000002</v>
+        <v>23.901081081081077</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>7.8793750000000005</v>
+        <v>7.6497297297297289</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
-        <v>31.347499999999997</v>
+        <v>31.288108108108105</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <f>STDEV(B4:B52)/SQRT(COUNT(B4:B52))</f>
-        <v>0.61326325674755233</v>
+        <v>0.54166928695213901</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:G2" si="1">STDEV(C4:C52)/SQRT(COUNT(C4:C52))</f>
-        <v>1.3289818713549471</v>
+        <v>1.1983416343733821</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="1"/>
-        <v>1.0995045106095782</v>
+        <v>0.970453684973685</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="1"/>
-        <v>0.96086518053329839</v>
+        <v>0.87011629678883373</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="1"/>
-        <v>0.72073802026173595</v>
+        <v>0.63583166394718926</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="1"/>
-        <v>1.1645899527578472</v>
+        <v>1.1005204091004086</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1853,6 +1856,136 @@
       </c>
       <c r="H35" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45565.844849537039</v>
+      </c>
+      <c r="B36">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="C36">
+        <v>40.19</v>
+      </c>
+      <c r="D36">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E36">
+        <v>24.05</v>
+      </c>
+      <c r="F36">
+        <v>5.8</v>
+      </c>
+      <c r="G36">
+        <v>29.01</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45611.675636574073</v>
+      </c>
+      <c r="B37">
+        <v>5.87</v>
+      </c>
+      <c r="C37">
+        <v>29.34</v>
+      </c>
+      <c r="D37">
+        <v>3.54</v>
+      </c>
+      <c r="E37">
+        <v>17.71</v>
+      </c>
+      <c r="F37">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="G37">
+        <v>23.87</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45675.523541666669</v>
+      </c>
+      <c r="B38">
+        <v>8.07</v>
+      </c>
+      <c r="C38">
+        <v>40.33</v>
+      </c>
+      <c r="D38">
+        <v>3.41</v>
+      </c>
+      <c r="E38">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>44.99</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45768.483969907407</v>
+      </c>
+      <c r="B39">
+        <v>6.99</v>
+      </c>
+      <c r="C39">
+        <v>34.93</v>
+      </c>
+      <c r="D39">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E39">
+        <v>25.55</v>
+      </c>
+      <c r="F39">
+        <v>5.88</v>
+      </c>
+      <c r="G39">
+        <v>29.41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45768.48510416667</v>
+      </c>
+      <c r="B40">
+        <v>6.76</v>
+      </c>
+      <c r="C40">
+        <v>33.81</v>
+      </c>
+      <c r="D40">
+        <v>5.03</v>
+      </c>
+      <c r="E40">
+        <v>25.17</v>
+      </c>
+      <c r="F40">
+        <v>5.45</v>
+      </c>
+      <c r="G40">
+        <v>27.26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
